--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_65.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_65.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Taichi Ishii</t>
+          <t>Kumiko Abe</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Taichi Ishii</t>
+          <t>Kumiko Abe</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Taichi Ishii</t>
+          <t>Kumiko Abe</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Taichi Ishii</t>
+          <t>Kumiko Abe</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Taichi Ishii</t>
+          <t>Kumiko Abe</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Taichi Ishii</t>
+          <t>Kumiko Abe</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Taichi Ishii</t>
+          <t>Kumiko Abe</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Taichi Ishii</t>
+          <t>Kumiko Abe</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Taichi Ishii</t>
+          <t>Kumiko Abe</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Taichi Ishii</t>
+          <t>Kumiko Abe</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Taichi Ishii</t>
+          <t>Kumiko Abe</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Taichi Ishii</t>
+          <t>Kumiko Abe</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Taichi Ishii</t>
+          <t>Kumiko Abe</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Taichi Ishii</t>
+          <t>Kumiko Abe</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Taichi Ishii</t>
+          <t>Kumiko Abe</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
